--- a/biology/Médecine/Clinton_Thomas_Dent/Clinton_Thomas_Dent.xlsx
+++ b/biology/Médecine/Clinton_Thomas_Dent/Clinton_Thomas_Dent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clinton Thomas Dent, né le 7 décembre 1850 à Sandgate et mort le 26 août 1912 à Londres, est un chirurgien, écrivain, alpiniste et explorateur britannique, auteur de la première ascension du Grand Dru en 1878.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses activités alpines au cours de l'été 1865 et poursuit patiemment son initiation au rythme de ses vacances estivales entièrement consacrées à la montagne, avant de s'aventurer au sommet de grandes montagnes par les voies classiques : Cervin, Schreckhorn, mont Rose, etc. Le 9 avril 1872, il est admis au sein de l'Alpine Club. C'est en 1873 que débute la longue série des tentatives d'ascensions des Drus. Les premiers essais ont comme objectif le Petit Dru, les 18 août et 21 août 1873, sans résultat. C'est à la dix-neuvième tentative dans les Drus qu'il réussit l'ascension du Grand Dru par le versant sud-est, le 12 septembre 1878. L'année 1879 marque la fin de la carrière proprement alpine de Dent, qui se consacre ensuite à l'exploration du Caucase ; il effectue ainsi la première tentative d'ascension du Dykh-Tau en 1886.  De 1892 à 1894, il anime une commission spécialisée sur le problème des signaux de détresse. Il se préoccupe aussi du perfectionnement des techniques d'alpinisme.
 </t>
@@ -542,7 +556,9 @@
           <t>Ascensions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1870 - Première ascension, en compagnie d'Alexandre Burgener, de la Suldenspitze (4 300 mètres)
 1871 - Première ascension du Portiengrat
@@ -577,7 +593,9 @@
           <t>Activité au sein de l'Alpine Club</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre de l'Alpine Club à partir de 1872, il est en secrétaire (1878-1880), vice-président (1884-1886) puis président (1887-1889).
 </t>
@@ -608,7 +626,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Un grand nombre d'articles dans l'Alpine Journal
 Above the Snow Line (1885)
